--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -171,7 +171,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害)</t>
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
         </r>
       </text>
     </comment>
@@ -492,7 +492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>TypeID</t>
   </si>
@@ -597,6 +597,10 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗棒的加血</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -971,13 +975,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -1151,6 +1158,56 @@
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
     </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>0.8</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -353,7 +353,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能冷却时间 为施法间隔</t>
+//技能冷却时间 为施法间隔
+-1表示当前单位的攻击时间间隔</t>
         </r>
       </text>
     </comment>
@@ -484,6 +485,32 @@
           </rPr>
           <t xml:space="preserve">
 //光环模型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否瞬间移动到目的地 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -492,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>TypeID</t>
   </si>
@@ -602,6 +629,17 @@
   <si>
     <t>治疗棒的加血</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌斩的斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3.25,3.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkToTarget</t>
   </si>
 </sst>
 </file>
@@ -975,15 +1013,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
@@ -1044,7 +1082,9 @@
       <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -1126,7 +1166,9 @@
         <v>28</v>
       </c>
       <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1207,6 +1249,56 @@
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>TypeID</t>
   </si>
@@ -640,6 +640,10 @@
   </si>
   <si>
     <t>BlinkToTarget</t>
+  </si>
+  <si>
+    <t>小黑光环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1013,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1300,6 +1304,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>0.8</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -67,7 +67,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//目标单位关系 1:友方  2:敌方 3:友方敌方都行</t>
+//目标单位关系 1:友方  2:敌方 3:友方敌方都行 5:仅自己 10:除自己外的友方敌方都行</t>
         </r>
       </text>
     </comment>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>TypeID</t>
   </si>
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>小黑光环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4.5,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招本体加速</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1017,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX5"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1270,6 +1282,9 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -1317,6 +1332,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>4</v>
       </c>
@@ -1351,6 +1369,112 @@
         <v>1</v>
       </c>
       <c r="T5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>0.08</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>4.25</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7">
+        <v>0.08</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>4.25</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
     </row>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>TypeID</t>
   </si>
@@ -655,6 +655,14 @@
   </si>
   <si>
     <t>虚空大招本体加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,175,225,275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1029,15 +1037,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
@@ -1478,6 +1487,59 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>TypeID</t>
   </si>
@@ -663,6 +663,22 @@
   </si>
   <si>
     <t>血魔祭司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,50,60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,12,14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1037,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1540,6 +1556,112 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>36</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>37</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>0.2</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -514,12 +514,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理参数</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>TypeID</t>
   </si>
@@ -679,6 +731,40 @@
   </si>
   <si>
     <t>10,12,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,26.66,38.33,50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25,3.5,3.75,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>39:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷后的范围伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,160,230,300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1053,16 +1139,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
@@ -1126,8 +1213,12 @@
       <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1210,8 +1301,12 @@
       <c r="T2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1293,6 +1388,12 @@
       <c r="T3">
         <v>2</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -1343,6 +1444,12 @@
       <c r="T4">
         <v>1</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -1396,6 +1503,12 @@
       <c r="T5">
         <v>2</v>
       </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -1449,6 +1562,12 @@
       <c r="T6">
         <v>2</v>
       </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -1502,6 +1621,12 @@
       <c r="T7">
         <v>2</v>
       </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -1555,6 +1680,12 @@
       <c r="T8">
         <v>2</v>
       </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -1608,6 +1739,12 @@
       <c r="T9">
         <v>2</v>
       </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -1660,6 +1797,127 @@
       </c>
       <c r="T10">
         <v>2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>1.8</v>
+      </c>
+      <c r="N11">
+        <v>0.3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12">
+        <v>2.75</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>TypeID</t>
   </si>
@@ -765,6 +765,14 @@
   </si>
   <si>
     <t>90,160,230,300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行敌军减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1139,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,6 +1928,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13">
+        <v>0.1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>3.25</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>TypeID</t>
   </si>
@@ -773,6 +773,10 @@
   </si>
   <si>
     <t>3,4,5,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔减甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1147,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1491,7 +1495,7 @@
         <v>50</v>
       </c>
       <c r="M5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N5">
         <v>0.8</v>
@@ -1984,6 +1988,65 @@
         <v>0</v>
       </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>54</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>100000</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>TypeID</t>
   </si>
@@ -777,6 +777,14 @@
   </si>
   <si>
     <t>影魔减甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃自己加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃敌人减速</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1151,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX14"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,6 +2058,124 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>0.2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>0.2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.5</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="N10">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="O10">
         <v>0</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>TypeID</t>
   </si>
@@ -785,6 +785,14 @@
   </si>
   <si>
     <t>幽鬼之刃敌人减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,63</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX16"/>
+  <dimension ref="A1:AX17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2081,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <v>56</v>
@@ -2140,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <v>57</v>
@@ -2173,6 +2181,65 @@
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4.5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -536,11 +536,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+//击杀其他单位后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
     <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +597,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>TypeID</t>
   </si>
@@ -793,6 +819,17 @@
   </si>
   <si>
     <t>62,63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledInvalid</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴给自己加速</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1167,20 +1204,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX17"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1242,12 +1279,14 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1275,8 +1314,9 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1330,12 +1370,14 @@
         <v>4</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -1363,8 +1405,9 @@
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1417,13 +1460,16 @@
         <v>2</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1473,13 +1519,16 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1532,13 +1581,16 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1591,13 +1643,16 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1650,13 +1705,16 @@
         <v>2</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1709,13 +1767,16 @@
         <v>2</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1768,13 +1829,16 @@
         <v>2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1827,13 +1891,16 @@
         <v>2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1886,13 +1953,16 @@
         <v>2</v>
       </c>
       <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1942,13 +2012,16 @@
         <v>2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2001,13 +2074,16 @@
         <v>2</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2060,13 +2136,16 @@
         <v>2</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2119,13 +2198,16 @@
         <v>2</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2178,13 +2260,16 @@
         <v>2</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2237,9 +2322,74 @@
         <v>2</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>70</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>TypeID</t>
   </si>
@@ -830,6 +830,18 @@
   </si>
   <si>
     <t>战斗饥渴给自己加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑加主属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,2.7,3.6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1204,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2393,6 +2405,127 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>73</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>1000000</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20">
+        <v>0.3</v>
+      </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <v>6.75</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>TypeID</t>
   </si>
@@ -842,6 +842,14 @@
   </si>
   <si>
     <t>1.8,2.7,3.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙禁被动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,45,60,75</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1216,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2526,6 +2534,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>75</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21">
+        <v>3.8</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -562,11 +562,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+//造成伤害后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
     <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +623,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>TypeID</t>
   </si>
@@ -850,6 +876,29 @@
   </si>
   <si>
     <t>30,45,60,75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,175,230,285</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtedInvalid</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,60,80,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1224,20 +1273,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AZ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,12 +1352,14 @@
         <v>61</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1335,8 +1387,9 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1393,12 +1446,14 @@
         <v>62</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -1426,8 +1481,9 @@
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1483,13 +1539,16 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1542,13 +1601,16 @@
         <v>2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1604,13 +1666,16 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1666,13 +1731,16 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1728,13 +1796,16 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1790,13 +1861,16 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1852,13 +1926,16 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1914,13 +1991,16 @@
         <v>2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1976,13 +2056,16 @@
         <v>2</v>
       </c>
       <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -2035,13 +2118,16 @@
         <v>2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2097,13 +2183,16 @@
         <v>2</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2159,13 +2248,16 @@
         <v>2</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2221,13 +2313,16 @@
         <v>2</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2283,13 +2378,16 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2345,13 +2443,16 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -2407,13 +2508,16 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -2469,13 +2573,16 @@
         <v>2</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -2528,13 +2635,16 @@
         <v>2</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -2590,9 +2700,139 @@
         <v>2</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22">
+        <v>2.6</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>86</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>0.1</v>
+      </c>
+      <c r="N23">
+        <v>0.1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -406,7 +407,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//光环范围 小于等于0表示无效</t>
+//伤害值类型 0表示固定值 1表示目标受到总伤害比列的一定比列 2:最大血量百分比</t>
         </r>
       </text>
     </comment>
@@ -432,7 +433,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
+//光环范围 小于等于0表示无效</t>
         </r>
       </text>
     </comment>
@@ -458,7 +459,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//跟随主角  1:是 2:否</t>
+//附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
         </r>
       </text>
     </comment>
@@ -484,7 +485,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//光环模型</t>
+//跟随主角  1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -510,7 +511,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否瞬间移动到目的地 1:是 2:否</t>
+//光环模型</t>
         </r>
       </text>
     </comment>
@@ -536,7 +537,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//击杀其他单位后失效 1:是 2:否</t>
+//是否瞬间移动到目的地 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -562,7 +563,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//造成伤害后失效 1:是 2:否</t>
+//击杀其他单位后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -588,11 +589,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+//造成伤害后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
     <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 1 小小的山崩 对投掷状态的单位造成3倍伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -623,7 +650,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>TypeID</t>
   </si>
@@ -899,6 +926,29 @@
   </si>
   <si>
     <t>40,60,80,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师减速护罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3.5,4,4.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtValueType</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005,0.011,0.017,0.023</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1273,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ23"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1284,10 +1334,11 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1334,33 +1385,35 @@
         <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
@@ -1388,8 +1441,9 @@
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1430,31 +1484,33 @@
         <v>23</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -1482,8 +1538,9 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1524,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1542,13 +1599,16 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1586,31 +1646,34 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="S4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1651,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -1669,13 +1732,16 @@
         <v>2</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1710,21 +1776,21 @@
         <v>37</v>
       </c>
       <c r="N6">
-        <v>0.08</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4.25</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
       <c r="U6">
@@ -1734,13 +1800,16 @@
         <v>2</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1775,21 +1844,21 @@
         <v>37</v>
       </c>
       <c r="N7">
-        <v>0.08</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>4.25</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
       <c r="U7">
@@ -1799,13 +1868,16 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1846,15 +1918,15 @@
         <v>39</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
       <c r="U8">
@@ -1864,13 +1936,16 @@
         <v>2</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1911,16 +1986,16 @@
         <v>42</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1929,13 +2004,16 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1975,17 +2053,17 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>44</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1994,13 +2072,16 @@
         <v>2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -2040,16 +2121,16 @@
       <c r="O11" t="s">
         <v>46</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>47</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>2</v>
       </c>
       <c r="U11">
@@ -2059,13 +2140,16 @@
         <v>2</v>
       </c>
       <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -2103,16 +2187,16 @@
         <v>53</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>2.75</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2121,13 +2205,16 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2162,22 +2249,22 @@
         <v>55</v>
       </c>
       <c r="N13">
-        <v>0.1</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>3.25</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2186,13 +2273,16 @@
         <v>2</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2233,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -2251,13 +2341,16 @@
         <v>2</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2298,15 +2391,15 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1.5</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
       <c r="U15">
@@ -2316,13 +2409,16 @@
         <v>2</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2363,15 +2459,15 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
       <c r="U16">
@@ -2381,13 +2477,16 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2428,15 +2527,15 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>4.5</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
       <c r="U17">
@@ -2446,13 +2545,16 @@
         <v>2</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -2493,31 +2595,34 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>15</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -2558,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>10</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
       <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -2576,13 +2681,16 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -2620,16 +2728,16 @@
         <v>300</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>6.75</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -2638,13 +2746,16 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -2685,15 +2796,15 @@
         <v>68</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>3.8</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>2</v>
       </c>
       <c r="U21">
@@ -2703,13 +2814,16 @@
         <v>2</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -2747,31 +2861,34 @@
         <v>70</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>2.6</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>2</v>
       </c>
       <c r="U22">
         <v>2</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -2812,16 +2929,16 @@
         <v>74</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>3</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2830,15 +2947,152 @@
         <v>2</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7.5</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>1000000</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
@@ -1325,13 +1325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.25" customWidth="1"/>
@@ -1621,6 +1622,9 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
       <c r="F4">
         <v>0</v>
       </c>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -673,282 +673,283 @@
     <t>NoCareMagicImmune</t>
   </si>
   <si>
+    <t>BulletSpeed</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtType</t>
+  </si>
+  <si>
+    <t>TriggerAttackEffect</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetBuff</t>
+  </si>
+  <si>
+    <t>InitBuff</t>
+  </si>
+  <si>
+    <t>UnitTargetMaxCount</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtValue</t>
+  </si>
+  <si>
+    <t>HaloRange</t>
+  </si>
+  <si>
+    <t>18,23,28,33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalHurt</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowParent</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HaloModeType</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗棒的加血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌斩的斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3.25,3.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkToTarget</t>
+  </si>
+  <si>
+    <t>小黑光环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4.5,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招本体加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,175,225,275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,50,60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,12,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,26.66,38.33,50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25,3.5,3.75,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>39:3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷后的范围伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,160,230,300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行敌军减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔减甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃自己加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃敌人减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledInvalid</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴给自己加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑加主属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,2.7,3.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙禁被动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,45,60,75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,175,230,285</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtedInvalid</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,60,80,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师减速护罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3.5,4,4.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtValueType</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005,0.011,0.017,0.023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BulletModeType</t>
-  </si>
-  <si>
-    <t>BulletSpeed</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HurtType</t>
-  </si>
-  <si>
-    <t>TriggerAttackEffect</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetBuff</t>
-  </si>
-  <si>
-    <t>InitBuff</t>
-  </si>
-  <si>
-    <t>UnitTargetMaxCount</t>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HurtValue</t>
-  </si>
-  <si>
-    <t>HaloRange</t>
-  </si>
-  <si>
-    <t>18,23,28,33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalHurt</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FollowParent</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HaloModeType</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗棒的加血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌斩的斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3.25,3.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkToTarget</t>
-  </si>
-  <si>
-    <t>小黑光环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4.5,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招本体加速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,175,225,275</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,50,60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,12,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小山崩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,26.66,38.33,50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.25,3.5,3.75,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExceptionParam</t>
-  </si>
-  <si>
-    <t>39:3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小投掷后的范围伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,160,230,300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行敌军减速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔减甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃自己加速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃敌人减速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>62,63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KilledInvalid</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗饥渴给自己加速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑加主属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8,2.7,3.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙禁被动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,45,60,75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫残影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,175,230,285</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HurtedInvalid</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫超负荷伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60,80,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师减速护罩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3.5,4,4.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HurtValueType</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师歇心光环伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.005,0.011,0.017,0.023</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1327,7 @@
   <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1353,67 +1354,67 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1446,7 +1447,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -1468,49 +1469,49 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -1546,7 +1547,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1592,6 +1593,9 @@
       </c>
       <c r="S3">
         <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1001</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1614,7 +1618,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1641,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1682,7 +1686,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1750,7 +1754,7 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1777,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>7.3999999999999996E-2</v>
@@ -1796,6 +1800,9 @@
       </c>
       <c r="S6">
         <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1004</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1818,7 +1825,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1845,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>7.3999999999999996E-2</v>
@@ -1886,13 +1893,16 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
         <v>2</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1919,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1932,6 +1942,9 @@
       </c>
       <c r="S8">
         <v>2</v>
+      </c>
+      <c r="T8">
+        <v>1006</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1954,7 +1967,7 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1987,7 +2000,7 @@
         <v>0.1</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2022,7 +2035,7 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2061,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2090,7 +2103,7 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2123,14 +2136,14 @@
         <v>0.3</v>
       </c>
       <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>46</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>47</v>
-      </c>
       <c r="R11">
         <v>0</v>
       </c>
@@ -2150,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.15">
@@ -2158,7 +2171,7 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2188,7 +2201,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2223,7 +2236,7 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2250,7 +2263,7 @@
         <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>7.3999999999999996E-2</v>
@@ -2291,7 +2304,7 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2359,7 +2372,7 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2427,7 +2440,7 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2495,28 +2508,28 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
       </c>
       <c r="L17">
         <v>50</v>
@@ -2563,7 +2576,7 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2631,7 +2644,7 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2699,31 +2712,34 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>65</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
       </c>
       <c r="N20">
         <v>0.3</v>
@@ -2764,7 +2780,7 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2797,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2810,6 +2826,9 @@
       </c>
       <c r="S21">
         <v>2</v>
+      </c>
+      <c r="T21">
+        <v>1019</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2832,7 +2851,7 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2862,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2875,6 +2894,9 @@
       </c>
       <c r="S22">
         <v>2</v>
+      </c>
+      <c r="T22">
+        <v>1020</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2897,7 +2919,7 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2930,7 +2952,7 @@
         <v>0.1</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2965,7 +2987,7 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2992,7 +3014,7 @@
         <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N24">
         <v>7.3999999999999996E-2</v>
@@ -3033,7 +3055,7 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3063,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P25">
         <v>2</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2082,6 +2082,9 @@
       <c r="S10">
         <v>1</v>
       </c>
+      <c r="T10">
+        <v>1008</v>
+      </c>
       <c r="U10">
         <v>2</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>50</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2554,6 +2557,9 @@
       </c>
       <c r="S17">
         <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1015</v>
       </c>
       <c r="U17">
         <v>2</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,6 +1337,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
     <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2153,6 +2154,9 @@
       <c r="S11">
         <v>2</v>
       </c>
+      <c r="T11">
+        <v>1009</v>
+      </c>
       <c r="U11">
         <v>2</v>
       </c>
@@ -2489,6 +2493,9 @@
       </c>
       <c r="S16">
         <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1014</v>
       </c>
       <c r="U16">
         <v>2</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2545,7 +2545,7 @@
         <v>50</v>
       </c>
       <c r="M17">
-        <v>10.9</v>
+        <v>20.9</v>
       </c>
       <c r="N17">
         <v>1</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -650,7 +650,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>TypeID</t>
   </si>
@@ -950,6 +950,10 @@
   </si>
   <si>
     <t>BulletModeType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1324,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1335,6 +1339,7 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.25" customWidth="1"/>
     <col min="17" max="17" width="16.75" customWidth="1"/>
@@ -3128,6 +3133,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>10000000</v>
+      </c>
+      <c r="N26">
+        <v>10000000</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1024</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -650,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>TypeID</t>
   </si>
@@ -954,6 +953,34 @@
   </si>
   <si>
     <t>传送门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复头巾加血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>146,147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>149</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>151</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1328,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA26"/>
+  <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3201,6 +3228,278 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>136</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>10000000</v>
+      </c>
+      <c r="N27">
+        <v>1.8</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>10000000</v>
+      </c>
+      <c r="N28">
+        <v>1.8</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>10000000</v>
+      </c>
+      <c r="N29">
+        <v>1.8</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>10000000</v>
+      </c>
+      <c r="N30">
+        <v>1.8</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>TypeID</t>
   </si>
@@ -981,6 +981,14 @@
   </si>
   <si>
     <t>151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>193</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1355,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA30"/>
+  <dimension ref="A1:BA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3500,6 +3508,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>10000000</v>
+      </c>
+      <c r="N31">
+        <v>1.8</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>TypeID</t>
   </si>
@@ -989,6 +989,14 @@
   </si>
   <si>
     <t>193</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,202</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1363,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA31"/>
+  <dimension ref="A1:BA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3576,6 +3584,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>10000000</v>
+      </c>
+      <c r="N32">
+        <v>1.8</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:BA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3140,7 +3140,7 @@
         <v>50</v>
       </c>
       <c r="M25">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="N25">
         <v>1</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>TypeID</t>
   </si>
@@ -715,20 +715,12 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t>0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HurtValue</t>
   </si>
   <si>
     <t>HaloRange</t>
   </si>
   <si>
-    <t>18,23,28,33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NormalHurt</t>
   </si>
   <si>
@@ -997,6 +989,10 @@
   </si>
   <si>
     <t>201,202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,115,140,165</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1374,7 +1370,7 @@
   <dimension ref="A1:BA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -1433,37 +1429,37 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1496,7 +1492,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1529,38 +1525,38 @@
         <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -1596,7 +1592,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1667,7 +1663,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1694,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1735,7 +1731,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1803,7 +1799,7 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1830,7 +1826,7 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>7.3999999999999996E-2</v>
@@ -1874,7 +1870,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1901,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>7.3999999999999996E-2</v>
@@ -1942,7 +1938,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1978,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2016,7 +2012,7 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2049,7 +2045,7 @@
         <v>0.1</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2084,7 +2080,7 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2123,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2155,7 +2151,7 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2188,13 +2184,13 @@
         <v>0.3</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2218,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.15">
@@ -2226,13 +2222,16 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2256,7 +2255,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2291,7 +2290,7 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2318,7 +2317,7 @@
         <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>7.3999999999999996E-2</v>
@@ -2359,7 +2358,7 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2427,7 +2426,7 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2495,7 +2494,7 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2566,7 +2565,7 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2587,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17">
         <v>50</v>
@@ -2637,7 +2636,7 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2705,7 +2704,7 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2773,7 +2772,7 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2800,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>0.3</v>
@@ -2841,7 +2840,7 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2874,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2912,13 +2911,16 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
+      </c>
+      <c r="E22">
+        <v>84</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2942,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2980,7 +2982,7 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3013,7 +3015,7 @@
         <v>0.1</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3048,7 +3050,7 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3075,7 +3077,7 @@
         <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N24">
         <v>7.3999999999999996E-2</v>
@@ -3116,7 +3118,7 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3146,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -3181,7 +3183,7 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -3249,7 +3251,7 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3317,7 +3319,7 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3338,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28">
         <v>20</v>
@@ -3385,7 +3387,7 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3406,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L29">
         <v>20</v>
@@ -3453,7 +3455,7 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3474,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L30">
         <v>20</v>
@@ -3521,7 +3523,7 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3542,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L31">
         <v>20</v>
@@ -3589,7 +3591,7 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -3610,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32">
         <v>20</v>

--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:BA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="N6">
-        <v>7.3999999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="N7">
-        <v>7.3999999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>52</v>
       </c>
       <c r="N13">
-        <v>7.3999999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>73</v>
       </c>
       <c r="N24">
-        <v>7.3999999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3657,7 +3657,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/halo.xlsx
+++ b/bin/conf/halo.xlsx
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3269,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>136</v>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>82</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>84</v>
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>86</v>
@@ -3541,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>88</v>
@@ -3609,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>90</v>
